--- a/data/IE1-04.xlsx
+++ b/data/IE1-04.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11925"/>
   </bookViews>
   <sheets>
     <sheet name="IE1-04" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_Int" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IE1-04'!$A$1:$L$42</definedName>
-    <definedName name="Área_impressão_IM" localSheetId="0">'IE1-04'!$A$2:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IE1-04'!$A$1:$L$43</definedName>
+    <definedName name="Área_impressão_IM" localSheetId="0">'IE1-04'!$A$2:$L$42</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Indicadores Econômicos</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Nov</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t>Acum. ano</t>
@@ -120,7 +123,7 @@
     </r>
   </si>
   <si>
-    <t>2-mai-2018</t>
+    <t>30-mai-2018</t>
   </si>
 </sst>
 </file>
@@ -830,7 +833,7 @@
   <sheetPr syncVertical="1" syncRef="A1" codeName="Plan46">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -846,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,101 +2059,138 @@
       <c r="N37" s="37"/>
       <c r="O37" s="37"/>
     </row>
-    <row r="38" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="31"/>
+    <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="34"/>
+      <c r="B38" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="30">
+        <v>0.33626534392592333</v>
+      </c>
+      <c r="D38" s="30">
+        <v>2.9810328470152303</v>
+      </c>
+      <c r="E38" s="30">
+        <v>0.31</v>
+      </c>
+      <c r="F38" s="30">
+        <v>1.656253115323516</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="30">
+        <v>0.21</v>
+      </c>
+      <c r="J38" s="30">
+        <v>1.6910380681602666</v>
+      </c>
+      <c r="K38" s="30">
+        <v>0.22</v>
+      </c>
+      <c r="L38" s="31">
+        <v>2.7626847278441113</v>
+      </c>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
     </row>
     <row r="39" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="43"/>
-    </row>
-    <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="31"/>
+    </row>
+    <row r="40" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="43"/>
+    </row>
+    <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="30">
-        <v>1.0278045866078713</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="30">
-        <v>0.57034195999996484</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="30">
-        <v>0.54000000000000625</v>
-      </c>
-      <c r="I40" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="30">
-        <v>0.48070128979998117</v>
-      </c>
-      <c r="K40" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="31">
-        <v>0.70147783519998086</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
       <c r="B41" s="29"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="48"/>
-    </row>
-    <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="49" t="s">
+      <c r="C41" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="51"/>
-    </row>
-    <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D41" s="30">
+        <v>1.3675260811618415</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="30">
+        <v>0.88211002007597017</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="30">
+        <v>0.89219162000003394</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="30">
+        <v>0.69171076250856345</v>
+      </c>
+      <c r="K41" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="31">
+        <v>0.92302108643742997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="45"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="48"/>
+    </row>
+    <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="51"/>
+    </row>
     <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2179,6 +2219,7 @@
     <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
   <pageMargins left="0.6692913385826772" right="0.6692913385826772" top="0.98425196850393704" bottom="0.98425196850393704" header="0.55118110236220474" footer="0.55118110236220474"/>
